--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_7_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_7_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1505446346549635</v>
+        <v>0.6697840722493278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1505446346549635</v>
+        <v>0.6697840722493278</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.410468741382519</v>
+        <v>3.107311324075772</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.6568636896498017, 12.47780117241484]</t>
+          <t>[-6.0906114269235, 12.305234075075044]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1300972357599324</v>
+        <v>0.4997248838166695</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1300972357599324</v>
+        <v>0.4997248838166695</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.4780000834290776</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.559842726590236, 2.603842559732081]</t>
+          <t>[-5.0378693003512005, 1.2390265320464255]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.756186024288666</v>
+        <v>0.2292122147080264</v>
       </c>
       <c r="S2" t="n">
-        <v>0.756186024288666</v>
+        <v>0.2292122147080264</v>
       </c>
       <c r="T2" t="n">
-        <v>10.53933618453884</v>
+        <v>14.4746500936367</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.639386183494171, 14.439286185583516]</t>
+          <t>[9.665438467897193, 19.283861719376212]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.078280230577434e-06</v>
+        <v>2.525936497743686e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.078280230577434e-06</v>
+        <v>2.525936497743686e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>1.785505505505522</v>
+        <v>6.847147147147179</v>
       </c>
       <c r="Y2" t="n">
-        <v>-9.726306306306402</v>
+        <v>-4.466516516516537</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.29731731731745</v>
+        <v>18.16081081081089</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1257158474777988</v>
+        <v>0.6555065511556951</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1257158474777988</v>
+        <v>0.6555065511556951</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.566493815651644</v>
+        <v>3.027188250338138</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.8063258391948258, 16.939313470498114]</t>
+          <t>[-5.911273817638545, 11.965650318314822]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1109449249815218</v>
+        <v>0.498661625003046</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1109449249815218</v>
+        <v>0.498661625003046</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1509473947670772</v>
+        <v>-1.006315965113847</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.8302371615508113, 1.528342372016657]</t>
+          <t>[-4.1447638813126595, 2.132131951084965]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8571467839998022</v>
+        <v>0.5216855993401071</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8571467839998022</v>
+        <v>0.5216855993401071</v>
       </c>
       <c r="T3" t="n">
-        <v>16.04317139598133</v>
+        <v>13.87266495078028</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.819096148552923, 21.26724664340974]</t>
+          <t>[9.22307329974656, 18.522256601813993]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.656360124613343e-07</v>
+        <v>3.024260388784228e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>1.656360124613343e-07</v>
+        <v>3.024260388784228e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5638438438438484</v>
+        <v>3.627627627627643</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.708918918918979</v>
+        <v>-7.686036036036072</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.836606606606676</v>
+        <v>14.94129129129136</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2071096644774775</v>
+        <v>0.4610960481860781</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2071096644774775</v>
+        <v>0.4610960481860781</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.619460773525625</v>
+        <v>3.268072677548492</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.5334032265017425, 15.772324773552992]</t>
+          <t>[-3.4437426007091307, 9.979887955806115]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.152162954228841</v>
+        <v>0.3319870373140412</v>
       </c>
       <c r="O4" t="n">
-        <v>0.152162954228841</v>
+        <v>0.3319870373140412</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.421500771718968, 1.8050792624229643]</t>
+          <t>[-4.3837639230272, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.4018467878534997</v>
+        <v>0.4283824025150662</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4018467878534997</v>
+        <v>0.4283824025150662</v>
       </c>
       <c r="T4" t="n">
-        <v>14.7535593047551</v>
+        <v>9.713268219321751</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.587731676054599, 19.919386933455602]</t>
+          <t>[6.06250704055568, 13.364029398087823]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.271904647332406e-07</v>
+        <v>2.762324223581913e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>7.271904647332406e-07</v>
+        <v>2.762324223581913e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>4.886646646646692</v>
+        <v>4.489189189189208</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.7426326326327</v>
+        <v>-6.824474474474508</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.51592592592608</v>
+        <v>15.80285285285292</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1526148231797473</v>
+        <v>0.4452948899623972</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1526148231797473</v>
+        <v>0.4452948899623972</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.505647887232208</v>
+        <v>3.565241564883607</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.9194642177340135, 12.93075999219843]</t>
+          <t>[-4.009939434035751, 11.140422563802964]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1423016367748049</v>
+        <v>0.3482265138344325</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1423016367748049</v>
+        <v>0.3482265138344325</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3081842643161155</v>
+        <v>-0.5660527303765388</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.3396846188896956, 2.9560531475219265]</t>
+          <t>[-3.679342747447505, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8157218236725812</v>
+        <v>0.715931486333409</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8157218236725812</v>
+        <v>0.715931486333409</v>
       </c>
       <c r="T5" t="n">
-        <v>12.15501960211796</v>
+        <v>11.27864733008733</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.164086019462538, 16.145953184773383]</t>
+          <t>[7.253850335397241, 15.303444324777411]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.972627428070695e-07</v>
+        <v>1.050714846906331e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.972627428070695e-07</v>
+        <v>1.050714846906331e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>22.31881881881904</v>
+        <v>2.040540540540547</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.42805805805818</v>
+        <v>-9.182432432432476</v>
       </c>
       <c r="Z5" t="n">
-        <v>32.20957957957989</v>
+        <v>13.26351351351357</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8872130042397127</v>
+        <v>0.1067335685347544</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8872130042397127</v>
+        <v>0.1067335685347544</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.402865984781207</v>
+        <v>6.130097553577396</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.249534706861862, 9.055266676424276]</t>
+          <t>[-1.0060749041433183, 13.266270011298111]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.7136860022248883</v>
+        <v>0.09045727068313369</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7136860022248883</v>
+        <v>0.09045727068313369</v>
       </c>
       <c r="P6" t="n">
         <v>-0.02515789912784605</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.1636058153266586, 3.1132900170709665]</t>
+          <t>[-1.54092132158058, 1.4906055233248878]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9871899911023294</v>
+        <v>0.9734802428601359</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9871899911023294</v>
+        <v>0.9734802428601359</v>
       </c>
       <c r="T6" t="n">
-        <v>10.92736543379777</v>
+        <v>12.6585471609282</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.804286773676529, 15.050444093919005]</t>
+          <t>[8.526379252449422, 16.790715069406986]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.96299252777743e-06</v>
+        <v>1.745360131977236e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.96299252777743e-06</v>
+        <v>1.745360131977236e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09397397397397711</v>
+        <v>0.09069069069069258</v>
       </c>
       <c r="Y6" t="n">
-        <v>-11.62927927927939</v>
+        <v>-5.373423423423449</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.81722722722735</v>
+        <v>5.554804804804834</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7125528861953805</v>
+        <v>0.23690577133581</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7125528861953805</v>
+        <v>0.23690577133581</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>2.656155059865289</v>
+        <v>5.018339468059743</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-6.139872296457706, 11.452182416188283]</t>
+          <t>[-3.0027990556597572, 13.039477991779243]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.5461105029236339</v>
+        <v>0.2141281567867943</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5461105029236339</v>
+        <v>0.2141281567867943</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.144684410317002</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.283132326515814, 1.9937635058818106]</t>
+          <t>[-2.5346583371305047, 3.7296585457031983]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4663923904239908</v>
+        <v>0.7026276354508574</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4663923904239908</v>
+        <v>0.7026276354508574</v>
       </c>
       <c r="T7" t="n">
-        <v>10.32978348549324</v>
+        <v>12.53871507538211</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.78574155754586, 14.873825413440622]</t>
+          <t>[8.37738123136295, 16.70004891940128]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.687896473869579e-05</v>
+        <v>2.467939090866622e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.687896473869579e-05</v>
+        <v>2.467939090866622e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>4.275815815815857</v>
+        <v>20.49609609609619</v>
       </c>
       <c r="Y7" t="n">
-        <v>-7.447437437437511</v>
+        <v>9.205105105105144</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.99906906906923</v>
+        <v>31.78708708708723</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3133207857734793</v>
+        <v>0.2141213125248158</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3133207857734793</v>
+        <v>0.2141213125248158</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.384950528213975</v>
+        <v>6.876618386130163</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.107888757264212, 14.87778981369216]</t>
+          <t>[-3.7650874398109337, 17.51832421207126]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2592767065173467</v>
+        <v>0.1997100299423882</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2592767065173467</v>
+        <v>0.1997100299423882</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2578684660604242</v>
+        <v>0.4088158608275014</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.836553126664657, 3.3522900587855053]</t>
+          <t>[-2.6038425597320805, 3.4214742813870833]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8674596780438728</v>
+        <v>0.7858634552841361</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8674596780438728</v>
+        <v>0.7858634552841361</v>
       </c>
       <c r="T8" t="n">
-        <v>14.26000152477234</v>
+        <v>16.89559312102339</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.25206071624168, 19.267942333302997]</t>
+          <t>[11.338004671384894, 22.453181570661883]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.709193676763704e-07</v>
+        <v>2.049740830400992e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>7.709193676763704e-07</v>
+        <v>2.049740830400992e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>22.50676676676698</v>
+        <v>21.17627627627637</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.94796796796807</v>
+        <v>10.31606606606611</v>
       </c>
       <c r="Z8" t="n">
-        <v>34.06556556556589</v>
+        <v>32.03648648648663</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.47000000000023</v>
+        <v>22.6500000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03558587735527508</v>
+        <v>0.1624732336362701</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03558587735527508</v>
+        <v>0.1624732336362701</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>9.493598273782304</v>
+        <v>6.06310595117294</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.1274395138005282, 18.85975703376408]</t>
+          <t>[-2.3660914606251158, 14.492303362970995]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04708952694816682</v>
+        <v>0.1543428657611485</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04708952694816682</v>
+        <v>0.1543428657611485</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4088158608275005</v>
+        <v>0.3962369112635784</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.0943686120613094, 1.9120003337163105]</t>
+          <t>[-2.5975530849501176, 3.3900269074772744]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.586557675772617</v>
+        <v>0.7910160825432468</v>
       </c>
       <c r="S9" t="n">
-        <v>0.586557675772617</v>
+        <v>0.7910160825432468</v>
       </c>
       <c r="T9" t="n">
-        <v>16.32922601955557</v>
+        <v>15.22511657027538</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[11.254740464654937, 21.403711574456196]</t>
+          <t>[10.72189869387906, 19.728334446671695]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.012582653980303e-08</v>
+        <v>1.95353240250995e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>6.012582653980303e-08</v>
+        <v>1.95353240250995e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>21.94292292292314</v>
+        <v>21.22162162162171</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.32797797797814</v>
+        <v>10.42942942942948</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.55786786786814</v>
+        <v>32.01381381381395</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7536919358944734</v>
+        <v>0.435470989410604</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7536919358944734</v>
+        <v>0.435470989410604</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2.578557583826438</v>
+        <v>4.481075622300746</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-6.9056124437683835, 12.06272761142126]</t>
+          <t>[-4.511769783950855, 13.473921028552347]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.5866761543791128</v>
+        <v>0.3209308537987392</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5866761543791128</v>
+        <v>0.3209308537987392</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8868159442565782</v>
+        <v>1.364816027685657</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, 4.02526386045539]</t>
+          <t>[-1.7736318885131563, 4.50326394388447]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5721076975701003</v>
+        <v>0.3857507926656103</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5721076975701003</v>
+        <v>0.3857507926656103</v>
       </c>
       <c r="T10" t="n">
-        <v>13.64944970099332</v>
+        <v>12.05758736344367</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.785365860816832, 18.513533541169814]</t>
+          <t>[7.130207467940963, 16.98496725894637]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.023163393787385e-06</v>
+        <v>1.166244166506125e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.023163393787385e-06</v>
+        <v>1.166244166506125e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>20.88744744744776</v>
+        <v>19.00596596596624</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.739619619619752</v>
+        <v>6.878118118118214</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.03527527527577</v>
+        <v>31.13381381381427</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1210821195531532</v>
+        <v>0.3346568680980262</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1210821195531532</v>
+        <v>0.3346568680980262</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.118667969802324</v>
+        <v>5.332298425751453</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.8652787819291685, 14.102614721533817]</t>
+          <t>[-4.183088429165293, 14.8476852806682]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1297010700813097</v>
+        <v>0.2650154157697522</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1297010700813097</v>
+        <v>0.2650154157697522</v>
       </c>
       <c r="P11" t="n">
-        <v>0.874236994692656</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, 4.000105961327546]</t>
+          <t>[-1.9811845563178885, 4.132184931748737]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5760265118270405</v>
+        <v>0.4821870015778438</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5760265118270405</v>
+        <v>0.4821870015778438</v>
       </c>
       <c r="T11" t="n">
-        <v>12.85023494612496</v>
+        <v>14.22245863728299</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.709819410233042, 16.990650482016886]</t>
+          <t>[9.147095865709211, 19.29782140885677]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.322859575214608e-07</v>
+        <v>1.050967709526063e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.322859575214608e-07</v>
+        <v>1.050967709526063e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>20.93613613613644</v>
+        <v>20.12396396396426</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.836996996997122</v>
+        <v>8.312072072072192</v>
       </c>
       <c r="Z11" t="n">
-        <v>33.03527527527577</v>
+        <v>31.93585585585633</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05441722431809448</v>
+        <v>0.1303865440847264</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05441722431809448</v>
+        <v>0.1303865440847264</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.79702752587281</v>
+        <v>5.68677416234741</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.7991592568218557, 18.393214308567476]</t>
+          <t>[-1.7708460088382143, 13.144394333533034]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07142163889362685</v>
+        <v>0.1315782863358967</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07142163889362685</v>
+        <v>0.1315782863358967</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5597632555945777</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 2.364842518017542]</t>
+          <t>[-2.0252108797916186, 4.2013691543503136]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5353991809442125</v>
+        <v>0.4851100030339079</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5353991809442125</v>
+        <v>0.4851100030339079</v>
       </c>
       <c r="T12" t="n">
-        <v>16.00149607834607</v>
+        <v>11.76598531359755</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.998971932749924, 21.00402022394222]</t>
+          <t>[7.83957156089123, 15.69239906630387]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.865338497696882e-08</v>
+        <v>2.765436415419487e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>6.865338497696882e-08</v>
+        <v>2.765436415419487e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>22.15335335335368</v>
+        <v>20.07535535535565</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.16652652652675</v>
+        <v>8.044724724724844</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.14018018018061</v>
+        <v>32.10598598598646</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05341960462654805</v>
+        <v>0.7647354882484838</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05341960462654805</v>
+        <v>0.7647354882484838</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.448245209025961</v>
+        <v>2.377131409510143</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.48204851744115373, 13.378538935493076]</t>
+          <t>[-6.4728401179218045, 11.227102936942089]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.06743076334528952</v>
+        <v>0.5911793652821808</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06743076334528952</v>
+        <v>0.5911793652821808</v>
       </c>
       <c r="P13" t="n">
-        <v>1.201289683354656</v>
+        <v>0.4717106086471157</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.3333421634439624, 2.7359215301532736]</t>
+          <t>[-2.6604478327697354, 3.6038690500639667]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.121889356395684</v>
+        <v>0.7630372589394541</v>
       </c>
       <c r="S13" t="n">
-        <v>0.121889356395684</v>
+        <v>0.7630372589394541</v>
       </c>
       <c r="T13" t="n">
-        <v>10.70614067121822</v>
+        <v>14.31758492143263</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.021107578577665, 14.391173763858776]</t>
+          <t>[9.732586091271493, 18.902583751593774]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.183290252563921e-07</v>
+        <v>1.15963923796869e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>5.183290252563921e-07</v>
+        <v>1.15963923796869e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>19.67023023023052</v>
+        <v>22.45717717717751</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.73021021021041</v>
+        <v>10.35363363363379</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.61025025025063</v>
+        <v>34.56072072072124</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03476334242015966</v>
+        <v>0.6941544221279643</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03476334242015966</v>
+        <v>0.6941544221279643</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>7.881033627541971</v>
+        <v>3.093227060778179</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[1.0239556854262428, 14.738111569657699]</t>
+          <t>[-7.062447724720113, 13.248901846276471]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.02523911284899349</v>
+        <v>0.5426621868337951</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02523911284899349</v>
+        <v>0.5426621868337951</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01257894956392303</v>
+        <v>0.7610264486173479</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.2264475824825016, 1.2012896833546556]</t>
+          <t>[-2.3774214675814647, 3.8994743648161605]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.9834404043569154</v>
+        <v>0.627645339838212</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9834404043569154</v>
+        <v>0.627645339838212</v>
       </c>
       <c r="T14" t="n">
-        <v>13.37515944864569</v>
+        <v>13.96613654106912</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.235628717186282, 17.51469018010509]</t>
+          <t>[8.843214443177413, 19.089058638960818]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.490213927927812e-08</v>
+        <v>1.767294351306958e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.490213927927812e-08</v>
+        <v>1.767294351306958e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04868868868868859</v>
+        <v>21.33917917917949</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.64976976976984</v>
+        <v>9.211331331331463</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.747147147147217</v>
+        <v>33.46702702702751</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.32000000000036</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3383957908483238</v>
+        <v>0.3881864435762412</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3383957908483238</v>
+        <v>0.3881864435762412</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.029217488684555</v>
+        <v>4.847863467961074</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-4.605038317008351, 16.66347329437746]</t>
+          <t>[-3.9812379292870324, 13.676964865209179]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.25952732667282</v>
+        <v>0.2746474834926549</v>
       </c>
       <c r="O15" t="n">
-        <v>0.25952732667282</v>
+        <v>0.2746474834926549</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2452895164965003</v>
+        <v>0.1572368695490391</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.7862373284089657, 3.2768163614019663]</t>
+          <t>[-2.962342622303888, 3.2768163614019663]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.8712741776540178</v>
+        <v>0.9195908152157661</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8712741776540178</v>
+        <v>0.9195908152157661</v>
       </c>
       <c r="T15" t="n">
-        <v>15.22542395508804</v>
+        <v>15.70231255311397</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[9.500318766662058, 20.95052914351403]</t>
+          <t>[10.76928575115026, 20.635339355077686]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.78495673100565e-06</v>
+        <v>7.644743482693173e-08</v>
       </c>
       <c r="W15" t="n">
-        <v>2.78495673100565e-06</v>
+        <v>7.644743482693173e-08</v>
       </c>
       <c r="X15" t="n">
-        <v>23.37057057057092</v>
+        <v>23.67239239239274</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.63659659659677</v>
+        <v>11.61745745745763</v>
       </c>
       <c r="Z15" t="n">
-        <v>35.10454454454506</v>
+        <v>35.72732732732785</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_7_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_7_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6697840722493278</v>
+        <v>0.3490020764990778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6697840722493278</v>
+        <v>0.3490020764990778</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.107311324075772</v>
+        <v>5.572296196081232</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-6.0906114269235, 12.305234075075044]</t>
+          <t>[-4.9368397880002854, 16.08143218016275]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4997248838166695</v>
+        <v>0.2912410229382658</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4997248838166695</v>
+        <v>0.2912410229382658</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.899421384152387</v>
+        <v>-0.9056843686024632</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.0378693003512005, 1.2390265320464255]</t>
+          <t>[-4.037842810019314, 2.226474072814388]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2292122147080264</v>
+        <v>0.5632099781476199</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2292122147080264</v>
+        <v>0.5632099781476199</v>
       </c>
       <c r="T2" t="n">
-        <v>14.4746500936367</v>
+        <v>15.39169409258621</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.665438467897193, 19.283861719376212]</t>
+          <t>[9.982282352189412, 20.801105832983]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.525936497743686e-07</v>
+        <v>7.822284981973127e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.525936497743686e-07</v>
+        <v>7.822284981973127e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>6.847147147147179</v>
+        <v>3.270630630630645</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.466516516516537</v>
+        <v>-8.040300300300339</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.16081081081089</v>
+        <v>14.58156156156163</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6555065511556951</v>
+        <v>0.3323288836762337</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6555065511556951</v>
+        <v>0.3323288836762337</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.027188250338138</v>
+        <v>4.675530020286495</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.911273817638545, 11.965650318314822]</t>
+          <t>[-3.6137106082942614, 12.964770648867251]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.498661625003046</v>
+        <v>0.2619493663850609</v>
       </c>
       <c r="O3" t="n">
-        <v>0.498661625003046</v>
+        <v>0.2619493663850609</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.006315965113847</v>
+        <v>-2.239053022378311</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.1447638813126595, 2.132131951084965]</t>
+          <t>[-5.377500938577122, 0.8993948938205003]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5216855993401071</v>
+        <v>0.1576589240367978</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5216855993401071</v>
+        <v>0.1576589240367978</v>
       </c>
       <c r="T3" t="n">
-        <v>13.87266495078028</v>
+        <v>13.84202309410124</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.22307329974656, 18.522256601813993]</t>
+          <t>[9.458498289083657, 18.22554789911883]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.024260388784228e-07</v>
+        <v>9.106542542269835e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>3.024260388784228e-07</v>
+        <v>9.106542542269835e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>3.627627627627643</v>
+        <v>8.085725725725764</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.686036036036072</v>
+        <v>-3.247917917917929</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.94129129129136</v>
+        <v>19.41936936936946</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4610960481860781</v>
+        <v>0.09430304049729887</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4610960481860781</v>
+        <v>0.09430304049729887</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.268072677548492</v>
+        <v>7.164870875527311</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.4437426007091307, 9.979887955806115]</t>
+          <t>[-1.3280581614022422, 15.657799912456863]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.3319870373140412</v>
+        <v>0.09619448590371005</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3319870373140412</v>
+        <v>0.09619448590371005</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.245316006828387</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.3837639230272, 1.8931319093704264]</t>
+          <t>[-3.031526844905466, 0.5660527303765388]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.4283824025150662</v>
+        <v>0.174314677623745</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4283824025150662</v>
+        <v>0.174314677623745</v>
       </c>
       <c r="T4" t="n">
-        <v>9.713268219321751</v>
+        <v>14.45713630783376</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.06250704055568, 13.364029398087823]</t>
+          <t>[9.953226577083264, 18.961046038584264]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.762324223581913e-06</v>
+        <v>6.353762382893535e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>2.762324223581913e-06</v>
+        <v>6.353762382893535e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>4.489189189189208</v>
+        <v>4.451691691691714</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.824474474474508</v>
+        <v>-2.044144144144152</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.80285285285292</v>
+        <v>10.94752752752758</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4452948899623972</v>
+        <v>0.1318253446931659</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4452948899623972</v>
+        <v>0.1318253446931659</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.565241564883607</v>
+        <v>7.170157995254246</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.009939434035751, 11.140422563802964]</t>
+          <t>[-1.9561292938134693, 16.296445284321962]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3482265138344325</v>
+        <v>0.1205620594919756</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3482265138344325</v>
+        <v>0.1205620594919756</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.5660527303765388</v>
+        <v>0.2075526678047304</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.679342747447505, 2.5472372866944273]</t>
+          <t>[-1.559789745926464, 1.9748950815359247]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.715931486333409</v>
+        <v>0.8140934957470531</v>
       </c>
       <c r="S5" t="n">
-        <v>0.715931486333409</v>
+        <v>0.8140934957470531</v>
       </c>
       <c r="T5" t="n">
-        <v>11.27864733008733</v>
+        <v>13.58924105134585</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.253850335397241, 15.303444324777411]</t>
+          <t>[8.525863870799718, 18.652618231891985]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.050714846906331e-06</v>
+        <v>2.358880180963752e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.050714846906331e-06</v>
+        <v>2.358880180963752e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>2.040540540540547</v>
+        <v>21.94048048048059</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.182432432432476</v>
+        <v>15.55820820820829</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.26351351351357</v>
+        <v>28.32275275275289</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1067335685347544</v>
+        <v>0.09765267470848793</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1067335685347544</v>
+        <v>0.09765267470848793</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.130097553577396</v>
+        <v>7.565004270126088</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.0060749041433183, 13.266270011298111]</t>
+          <t>[-1.6800385580473511, 16.810047098299528]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09045727068313369</v>
+        <v>0.1062990981085155</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09045727068313369</v>
+        <v>0.1062990981085155</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.02515789912784605</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.54092132158058, 1.4906055233248878]</t>
+          <t>[-1.58494764505431, 2.6541583579877734]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9734802428601359</v>
+        <v>0.6139287942709699</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9734802428601359</v>
+        <v>0.6139287942709699</v>
       </c>
       <c r="T6" t="n">
-        <v>12.6585471609282</v>
+        <v>13.42134719073272</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.526379252449422, 16.790715069406986]</t>
+          <t>[8.517011937832903, 18.325682443632537]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.745360131977236e-07</v>
+        <v>1.645957154572386e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.745360131977236e-07</v>
+        <v>1.645957154572386e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09069069069069258</v>
+        <v>20.75941941941952</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.373423423423449</v>
+        <v>13.1052352352353</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.554804804804834</v>
+        <v>28.41360360360374</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.23690577133581</v>
+        <v>0.5543930697361282</v>
       </c>
       <c r="I7" t="n">
-        <v>0.23690577133581</v>
+        <v>0.5543930697361282</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.018339468059743</v>
+        <v>3.567184373932307</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-3.0027990556597572, 13.039477991779243]</t>
+          <t>[-5.267155967433218, 12.401524715297832]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2141281567867943</v>
+        <v>0.4203472292655732</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2141281567867943</v>
+        <v>0.4203472292655732</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5975001042863468</v>
+        <v>0.2578684660604234</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.5346583371305047, 3.7296585457031983]</t>
+          <t>[-2.861711025792504, 3.3774479579133505]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7026276354508574</v>
+        <v>0.8685184572033644</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7026276354508574</v>
+        <v>0.8685184572033644</v>
       </c>
       <c r="T7" t="n">
-        <v>12.53871507538211</v>
+        <v>10.48613620055184</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.37738123136295, 16.70004891940128]</t>
+          <t>[5.7498005040142965, 15.222471897089392]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.467939090866622e-07</v>
+        <v>5.432003108207795e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.467939090866622e-07</v>
+        <v>5.432003108207795e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>20.49609609609619</v>
+        <v>21.75877877877888</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.205105105105144</v>
+        <v>10.49327327327333</v>
       </c>
       <c r="Z7" t="n">
-        <v>31.78708708708723</v>
+        <v>33.02428428428444</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2141213125248158</v>
+        <v>0.4257757401503616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2141213125248158</v>
+        <v>0.4257757401503616</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.876618386130163</v>
+        <v>4.450897580670532</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.7650874398109337, 17.51832421207126]</t>
+          <t>[-4.7031389900398874, 13.60493415138095]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1997100299423882</v>
+        <v>0.3326664612276089</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1997100299423882</v>
+        <v>0.3326664612276089</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4088158608275014</v>
+        <v>0.3585000625718076</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.6038425597320805, 3.4214742813870833]</t>
+          <t>[-2.779947853627004, 3.4969479787706192]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7858634552841361</v>
+        <v>0.8190816489449184</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7858634552841361</v>
+        <v>0.8190816489449184</v>
       </c>
       <c r="T8" t="n">
-        <v>16.89559312102339</v>
+        <v>12.40882812408553</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[11.338004671384894, 22.453181570661883]</t>
+          <t>[7.5282450905613745, 17.28941115760969]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.049740830400992e-07</v>
+        <v>6.145484200414941e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.049740830400992e-07</v>
+        <v>6.145484200414941e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>21.17627627627637</v>
+        <v>21.39537537537548</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.31606606606611</v>
+        <v>10.06173173173178</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.03648648648663</v>
+        <v>32.72901901901918</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.6500000000001</v>
+        <v>22.69000000000011</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1624732336362701</v>
+        <v>0.2807666857111124</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1624732336362701</v>
+        <v>0.2807666857111124</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.06310595117294</v>
+        <v>4.935476220914733</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.3660914606251158, 14.492303362970995]</t>
+          <t>[-3.4253463495471603, 13.296298791376627]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1543428657611485</v>
+        <v>0.2406975461289529</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1543428657611485</v>
+        <v>0.2406975461289529</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3962369112635784</v>
+        <v>0.4591316590831926</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.5975530849501176, 3.3900269074772744]</t>
+          <t>[-2.6541583579877734, 3.5724216761541587]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.7910160825432468</v>
+        <v>0.7678108700712456</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7910160825432468</v>
+        <v>0.7678108700712456</v>
       </c>
       <c r="T9" t="n">
-        <v>15.22511657027538</v>
+        <v>13.85708141662544</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.72189869387906, 19.728334446671695]</t>
+          <t>[9.45958498593987, 18.254577847311012]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.95353240250995e-08</v>
+        <v>9.531337208379398e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.95353240250995e-08</v>
+        <v>9.531337208379398e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>21.22162162162171</v>
+        <v>21.03197197197207</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.42942942942948</v>
+        <v>9.789179179179227</v>
       </c>
       <c r="Z9" t="n">
-        <v>32.01381381381395</v>
+        <v>32.27476476476492</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.435470989410604</v>
+        <v>0.09465340737408168</v>
       </c>
       <c r="I10" t="n">
-        <v>0.435470989410604</v>
+        <v>0.09465340737408168</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.481075622300746</v>
+        <v>7.362638817974092</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.511769783950855, 13.473921028552347]</t>
+          <t>[-0.785327139314151, 15.510604775262333]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3209308537987392</v>
+        <v>0.07541784274927621</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3209308537987392</v>
+        <v>0.07541784274927621</v>
       </c>
       <c r="P10" t="n">
-        <v>1.364816027685657</v>
+        <v>1.327079178993888</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.7736318885131563, 4.50326394388447]</t>
+          <t>[-0.3585000625718058, 3.012658420559581]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3857507926656103</v>
+        <v>0.1198034673557242</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3857507926656103</v>
+        <v>0.1198034673557242</v>
       </c>
       <c r="T10" t="n">
-        <v>12.05758736344367</v>
+        <v>12.56298085609779</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.130207467940963, 16.98496725894637]</t>
+          <t>[7.845033610534022, 17.28092810166155]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.166244166506125e-05</v>
+        <v>2.72147442470505e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.166244166506125e-05</v>
+        <v>2.72147442470505e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>19.00596596596624</v>
+        <v>19.09657657657684</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.878118118118214</v>
+        <v>12.60180180180198</v>
       </c>
       <c r="Z10" t="n">
-        <v>31.13381381381427</v>
+        <v>25.5913513513517</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3346568680980262</v>
+        <v>0.7196009621985832</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3346568680980262</v>
+        <v>0.7196009621985832</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.332298425751453</v>
+        <v>2.424037319905819</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.183088429165293, 14.8476852806682]</t>
+          <t>[-5.586297407349516, 10.434372047161155]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2650154157697522</v>
+        <v>0.5452614505087543</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2650154157697522</v>
+        <v>0.5452614505087543</v>
       </c>
       <c r="P11" t="n">
-        <v>1.075500187715424</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.9811845563178885, 4.132184931748737]</t>
+          <t>[-2.11326352673908, 4.06300070914716]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.4821870015778438</v>
+        <v>0.5281164041476942</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4821870015778438</v>
+        <v>0.5281164041476942</v>
       </c>
       <c r="T11" t="n">
-        <v>14.22245863728299</v>
+        <v>12.24272421545672</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.147095865709211, 19.29782140885677]</t>
+          <t>[7.999192585577976, 16.48625584533546]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.050967709526063e-06</v>
+        <v>5.957744191320558e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.050967709526063e-06</v>
+        <v>5.957744191320558e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>20.12396396396426</v>
+        <v>20.45369369369399</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.312072072072192</v>
+        <v>8.554684684684807</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.93585585585633</v>
+        <v>32.35270270270316</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1303865440847264</v>
+        <v>0.7789517664399581</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1303865440847264</v>
+        <v>0.7789517664399581</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.68677416234741</v>
+        <v>2.442760273824163</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.7708460088382143, 13.144394333533034]</t>
+          <t>[-6.978906921265571, 11.864427468913897]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1315782863358967</v>
+        <v>0.6040940623091435</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1315782863358967</v>
+        <v>0.6040940623091435</v>
       </c>
       <c r="P12" t="n">
-        <v>1.088079137279347</v>
+        <v>0.2452895164965003</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.0252108797916186, 4.2013691543503136]</t>
+          <t>[-2.8868689249203503, 3.377447957913351]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.4851100030339079</v>
+        <v>0.8753744367792853</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4851100030339079</v>
+        <v>0.8753744367792853</v>
       </c>
       <c r="T12" t="n">
-        <v>11.76598531359755</v>
+        <v>14.33363755537187</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.83957156089123, 15.69239906630387]</t>
+          <t>[9.447255868981483, 19.220019241762262]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.765436415419487e-07</v>
+        <v>4.273397105070131e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>2.765436415419487e-07</v>
+        <v>4.273397105070131e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>20.07535535535565</v>
+        <v>23.2648648648652</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.044724724724844</v>
+        <v>11.19621621621638</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.10598598598646</v>
+        <v>35.33351351351401</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7647354882484838</v>
+        <v>0.09879613835945134</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7647354882484838</v>
+        <v>0.09879613835945134</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>2.377131409510143</v>
+        <v>6.421075574636188</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-6.4728401179218045, 11.227102936942089]</t>
+          <t>[-1.0278374116563072, 13.869988560928682]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.5911793652821808</v>
+        <v>0.08937357189498174</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5911793652821808</v>
+        <v>0.08937357189498174</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4717106086471157</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.6604478327697354, 3.6038690500639667]</t>
+          <t>[-0.2201316173686525, 3.025237370123504]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.7630372589394541</v>
+        <v>0.08854012965085811</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7630372589394541</v>
+        <v>0.08854012965085811</v>
       </c>
       <c r="T13" t="n">
-        <v>14.31758492143263</v>
+        <v>12.34791142224891</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.732586091271493, 18.902583751593774]</t>
+          <t>[8.190544130843602, 16.505278713654224]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.15963923796869e-07</v>
+        <v>3.318860497536491e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.15963923796869e-07</v>
+        <v>3.318860497536491e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>22.45717717717751</v>
+        <v>18.80576576576603</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.35363363363379</v>
+        <v>12.55333333333352</v>
       </c>
       <c r="Z13" t="n">
-        <v>34.56072072072124</v>
+        <v>25.05819819819855</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6941544221279643</v>
+        <v>0.2238469365238999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6941544221279643</v>
+        <v>0.2238469365238999</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.093227060778179</v>
+        <v>6.12027208924061</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-7.062447724720113, 13.248901846276471]</t>
+          <t>[-3.3387148914823594, 15.579259069963578]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.5426621868337951</v>
+        <v>0.1991385926286757</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5426621868337951</v>
+        <v>0.1991385926286757</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7610264486173479</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.3774214675814647, 3.8994743648161605]</t>
+          <t>[-1.7610529389492333, 4.037842810019314]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.627645339838212</v>
+        <v>0.4332164947912007</v>
       </c>
       <c r="S14" t="n">
-        <v>0.627645339838212</v>
+        <v>0.4332164947912007</v>
       </c>
       <c r="T14" t="n">
-        <v>13.96613654106912</v>
+        <v>12.90171049011686</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.843214443177413, 19.089058638960818]</t>
+          <t>[7.938522074812476, 17.864898905421235]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.767294351306958e-06</v>
+        <v>4.181805672853756e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.767294351306958e-06</v>
+        <v>4.181805672853756e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>21.33917917917949</v>
+        <v>19.82360360360389</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.211331331331463</v>
+        <v>8.651621621621743</v>
       </c>
       <c r="Z14" t="n">
-        <v>33.46702702702751</v>
+        <v>30.99558558558603</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.28000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3881864435762412</v>
+        <v>0.395517369418931</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3881864435762412</v>
+        <v>0.395517369418931</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.847863467961074</v>
+        <v>5.171153681770678</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.9812379292870324, 13.676964865209179]</t>
+          <t>[-5.1916176896040565, 15.533925053145412]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2746474834926549</v>
+        <v>0.3202405622277726</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2746474834926549</v>
+        <v>0.3202405622277726</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1572368695490391</v>
+        <v>-0.6289474781961548</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.962342622303888, 3.2768163614019663]</t>
+          <t>[-3.767395394394967, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.9195908152157661</v>
+        <v>0.6883979992496063</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9195908152157661</v>
+        <v>0.6883979992496063</v>
       </c>
       <c r="T15" t="n">
-        <v>15.70231255311397</v>
+        <v>16.90904883649127</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[10.76928575115026, 20.635339355077686]</t>
+          <t>[11.566686347425172, 22.251411325557374]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.644743482693173e-08</v>
+        <v>8.656255223726816e-08</v>
       </c>
       <c r="W15" t="n">
-        <v>7.644743482693173e-08</v>
+        <v>8.656255223726816e-08</v>
       </c>
       <c r="X15" t="n">
-        <v>23.67239239239274</v>
+        <v>2.423423423423458</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.61745745745763</v>
+        <v>-9.669459459459597</v>
       </c>
       <c r="Z15" t="n">
-        <v>35.72732732732785</v>
+        <v>14.51630630630651</v>
       </c>
     </row>
   </sheetData>
